--- a/doc/ジャンル・時間・価格.xlsx
+++ b/doc/ジャンル・時間・価格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC1AAAA-126C-4EB6-ABB7-AA4AA468FBAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6298F1-90D6-42CD-9287-9782CED6A884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EB121926-8483-45D3-B7AD-D2BB5B92C1D7}"/>
+    <workbookView xWindow="2840" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{EB121926-8483-45D3-B7AD-D2BB5B92C1D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -136,56 +136,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>~5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5~10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10~15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15~</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>~500円</t>
-    <rPh sb="4" eb="5">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>500~1000円</t>
-    <rPh sb="8" eb="9">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1000~1500円</t>
-    <rPh sb="9" eb="10">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1500~2000円</t>
-    <rPh sb="9" eb="10">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>片道時間</t>
     <rPh sb="0" eb="2">
       <t>カタミチ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>700円</t>
+    <rPh sb="3" eb="4">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1500円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000円</t>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -252,10 +243,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DD83E4-814E-4905-A2F7-EFE78734CDC3}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -584,198 +575,167 @@
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2" t="s">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2">
-        <v>4</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>13</v>
       </c>
     </row>
